--- a/biology/Botanique/Carex_de_Cusick/Carex_de_Cusick.xlsx
+++ b/biology/Botanique/Carex_de_Cusick/Carex_de_Cusick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex cusickii (appelé quelquefois en français Carex de Cusick) est une espèce de plantes du genre Carex et de la famille des Cyperaceae.
 Il est originaire de l'ouest de l'Amérique du Nord de la Colombie-Britannique à la Californie et à l'Utah, où on le trouve dans plusieurs types d'habitats humides, comme les marais, les prairies de montagne et les fossés. Dans son territoire, il est plus courant dans la chaîne des Cascades et à l'ouest de cette zone.
